--- a/stock_historical_data/1wk/PICCADIL.BO.xlsx
+++ b/stock_historical_data/1wk/PICCADIL.BO.xlsx
@@ -62212,7 +62212,9 @@
       <c r="P1165" t="n">
         <v>0</v>
       </c>
-      <c r="Q1165" t="inlineStr"/>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PICCADIL.BO.xlsx
+++ b/stock_historical_data/1wk/PICCADIL.BO.xlsx
@@ -65765,7 +65765,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PICCADIL.BO.xlsx
+++ b/stock_historical_data/1wk/PICCADIL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1166"/>
+  <dimension ref="A1:R1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65589,7 +65589,7 @@
         <v>21</v>
       </c>
       <c r="O1163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1163" t="n">
         <v>0</v>
@@ -65768,6 +65768,114 @@
       <c r="R1166" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>790</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>790</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>722</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>731.7000122070312</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>731.7000122070312</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>410177</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>765</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>717</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>454800</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PICCADIL.BO.xlsx
+++ b/stock_historical_data/1wk/PICCADIL.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1168"/>
+  <dimension ref="A1:R1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3656,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4054,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -6014,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -6350,7 +6350,7 @@
         <v>2</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7358,7 +7358,7 @@
         <v>2</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -8926,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="R151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -9318,7 +9318,7 @@
         <v>2</v>
       </c>
       <c r="R158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -10494,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="R179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -11110,7 +11110,7 @@
         <v>2</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="R199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -11838,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="R203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="R209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -12398,7 +12398,7 @@
         <v>2</v>
       </c>
       <c r="R213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -12902,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="R222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -13126,7 +13126,7 @@
         <v>2</v>
       </c>
       <c r="R226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -14078,7 +14078,7 @@
         <v>2</v>
       </c>
       <c r="R243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -14358,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="R248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -14414,7 +14414,7 @@
         <v>2</v>
       </c>
       <c r="R249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -15254,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="R272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -15982,7 +15982,7 @@
         <v>2</v>
       </c>
       <c r="R277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
       <c r="R294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -18054,7 +18054,7 @@
         <v>2</v>
       </c>
       <c r="R314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -18670,7 +18670,7 @@
         <v>1</v>
       </c>
       <c r="R325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -19006,7 +19006,7 @@
         <v>2</v>
       </c>
       <c r="R331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -19566,7 +19566,7 @@
         <v>1</v>
       </c>
       <c r="R341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -20462,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="R357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="R370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -21358,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="R373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -22310,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="R390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -22758,7 +22758,7 @@
         <v>2</v>
       </c>
       <c r="R398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -23318,7 +23318,7 @@
         <v>2</v>
       </c>
       <c r="R408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="R413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -23990,7 +23990,7 @@
         <v>2</v>
       </c>
       <c r="R420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -24494,7 +24494,7 @@
         <v>1</v>
       </c>
       <c r="R429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -24998,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="R438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -25110,7 +25110,7 @@
         <v>2</v>
       </c>
       <c r="R440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -26230,7 +26230,7 @@
         <v>1</v>
       </c>
       <c r="R460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -26398,7 +26398,7 @@
         <v>2</v>
       </c>
       <c r="R463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -26622,7 +26622,7 @@
         <v>1</v>
       </c>
       <c r="R467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -27126,7 +27126,7 @@
         <v>1</v>
       </c>
       <c r="R476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -28078,7 +28078,7 @@
         <v>2</v>
       </c>
       <c r="R493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494">
@@ -28414,7 +28414,7 @@
         <v>2</v>
       </c>
       <c r="R499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -30038,7 +30038,7 @@
         <v>2</v>
       </c>
       <c r="R528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -30318,7 +30318,7 @@
         <v>1</v>
       </c>
       <c r="R533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -30822,7 +30822,7 @@
         <v>1</v>
       </c>
       <c r="R542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -31270,7 +31270,7 @@
         <v>2</v>
       </c>
       <c r="R550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -31662,7 +31662,7 @@
         <v>1</v>
       </c>
       <c r="R557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -32054,7 +32054,7 @@
         <v>2</v>
       </c>
       <c r="R564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -32558,7 +32558,7 @@
         <v>2</v>
       </c>
       <c r="R573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -32782,7 +32782,7 @@
         <v>1</v>
       </c>
       <c r="R577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -33174,7 +33174,7 @@
         <v>1</v>
       </c>
       <c r="R584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -33846,7 +33846,7 @@
         <v>2</v>
       </c>
       <c r="R596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597">
@@ -34406,7 +34406,7 @@
         <v>1</v>
       </c>
       <c r="R606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -34686,7 +34686,7 @@
         <v>2</v>
       </c>
       <c r="R611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612">
@@ -35022,7 +35022,7 @@
         <v>2</v>
       </c>
       <c r="R617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618">
@@ -35246,7 +35246,7 @@
         <v>1</v>
       </c>
       <c r="R621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -36310,7 +36310,7 @@
         <v>2</v>
       </c>
       <c r="R640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641">
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="R646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -36982,7 +36982,7 @@
         <v>2</v>
       </c>
       <c r="R652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653">
@@ -37094,7 +37094,7 @@
         <v>1</v>
       </c>
       <c r="R654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -37654,7 +37654,7 @@
         <v>2</v>
       </c>
       <c r="R664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -37934,7 +37934,7 @@
         <v>1</v>
       </c>
       <c r="R669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -38158,7 +38158,7 @@
         <v>2</v>
       </c>
       <c r="R673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -38606,7 +38606,7 @@
         <v>2</v>
       </c>
       <c r="R681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -39278,7 +39278,7 @@
         <v>2</v>
       </c>
       <c r="R693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -39838,7 +39838,7 @@
         <v>1</v>
       </c>
       <c r="R703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -40230,7 +40230,7 @@
         <v>2</v>
       </c>
       <c r="R710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711">
@@ -40902,7 +40902,7 @@
         <v>2</v>
       </c>
       <c r="R722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -41238,7 +41238,7 @@
         <v>1</v>
       </c>
       <c r="R728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -41518,7 +41518,7 @@
         <v>2</v>
       </c>
       <c r="R733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734">
@@ -42302,7 +42302,7 @@
         <v>2</v>
       </c>
       <c r="R747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -42974,7 +42974,7 @@
         <v>2</v>
       </c>
       <c r="R759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760">
@@ -43254,7 +43254,7 @@
         <v>1</v>
       </c>
       <c r="R764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -43702,7 +43702,7 @@
         <v>2</v>
       </c>
       <c r="R772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773">
@@ -44038,7 +44038,7 @@
         <v>1</v>
       </c>
       <c r="R778" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -44430,7 +44430,7 @@
         <v>2</v>
       </c>
       <c r="R785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786">
@@ -45102,7 +45102,7 @@
         <v>1</v>
       </c>
       <c r="R797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -45382,7 +45382,7 @@
         <v>2</v>
       </c>
       <c r="R802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -45494,7 +45494,7 @@
         <v>1</v>
       </c>
       <c r="R804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -45998,7 +45998,7 @@
         <v>2</v>
       </c>
       <c r="R813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -47958,7 +47958,7 @@
         <v>1</v>
       </c>
       <c r="R848" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -48518,7 +48518,7 @@
         <v>1</v>
       </c>
       <c r="R858" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859">
@@ -48910,7 +48910,7 @@
         <v>1</v>
       </c>
       <c r="R865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -49358,7 +49358,7 @@
         <v>2</v>
       </c>
       <c r="R873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874">
@@ -49974,7 +49974,7 @@
         <v>1</v>
       </c>
       <c r="R884" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885">
@@ -50310,7 +50310,7 @@
         <v>2</v>
       </c>
       <c r="R890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891">
@@ -50534,7 +50534,7 @@
         <v>1</v>
       </c>
       <c r="R894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -52382,7 +52382,7 @@
         <v>2</v>
       </c>
       <c r="R927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -53222,7 +53222,7 @@
         <v>2</v>
       </c>
       <c r="R942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943">
@@ -54510,7 +54510,7 @@
         <v>2</v>
       </c>
       <c r="R965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966">
@@ -55182,7 +55182,7 @@
         <v>2</v>
       </c>
       <c r="R977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -55518,7 +55518,7 @@
         <v>1</v>
       </c>
       <c r="R983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -56134,7 +56134,7 @@
         <v>2</v>
       </c>
       <c r="R994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -56470,7 +56470,7 @@
         <v>1</v>
       </c>
       <c r="R1000" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001">
@@ -56582,7 +56582,7 @@
         <v>2</v>
       </c>
       <c r="R1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -57534,7 +57534,7 @@
         <v>2</v>
       </c>
       <c r="R1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020">
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="R1024" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -58710,7 +58710,7 @@
         <v>1</v>
       </c>
       <c r="R1040" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -59102,7 +59102,7 @@
         <v>2</v>
       </c>
       <c r="R1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -59382,7 +59382,7 @@
         <v>1</v>
       </c>
       <c r="R1052" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
@@ -59774,7 +59774,7 @@
         <v>2</v>
       </c>
       <c r="R1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -59998,7 +59998,7 @@
         <v>1</v>
       </c>
       <c r="R1063" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -60222,7 +60222,7 @@
         <v>2</v>
       </c>
       <c r="R1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -60726,7 +60726,7 @@
         <v>2</v>
       </c>
       <c r="R1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -61286,7 +61286,7 @@
         <v>2</v>
       </c>
       <c r="R1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -61790,7 +61790,7 @@
         <v>2</v>
       </c>
       <c r="R1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096">
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
       <c r="R1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -62462,7 +62462,7 @@
         <v>2</v>
       </c>
       <c r="R1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -62574,7 +62574,7 @@
         <v>1</v>
       </c>
       <c r="R1109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -62966,7 +62966,7 @@
         <v>1</v>
       </c>
       <c r="R1116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -63190,7 +63190,7 @@
         <v>2</v>
       </c>
       <c r="R1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -64198,7 +64198,7 @@
         <v>2</v>
       </c>
       <c r="R1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139">
@@ -64534,7 +64534,7 @@
         <v>1</v>
       </c>
       <c r="R1144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145">
@@ -65206,7 +65206,7 @@
         <v>2</v>
       </c>
       <c r="R1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157">
@@ -65821,7 +65821,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65875,7 +65877,477 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>985.0999755859375</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>998</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>889.0999755859375</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>941.7999877929688</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>523999</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>970</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>970</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>875.3499755859375</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>875.3499755859375</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>459512</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>850</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>850.0499877929688</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>759.6500244140625</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>808.0999755859375</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>699726</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>808.0999755859375</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>857.7999877929688</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>766.25</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>782.5</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>345337</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>775</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>809</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>706.25</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>798.4500122070312</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>561906</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>798.4500122070312</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>864.5999755859375</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>707.9000244140625</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>707.9000244140625</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>653975</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>683</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>703.7999877929688</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>587.5</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>587.5999755859375</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>1159320</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>587.5999755859375</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>508.2000122070312</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>616.6500244140625</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>851332</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>616</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>627.5</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>554.2000122070312</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>612.3499755859375</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>751002</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PICCADIL.BO.xlsx
+++ b/stock_historical_data/1wk/PICCADIL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1177"/>
+  <dimension ref="A1:R1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="R78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="R95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -6014,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -6350,7 +6350,7 @@
         <v>2</v>
       </c>
       <c r="R105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7358,7 +7358,7 @@
         <v>2</v>
       </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8926,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="R151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -9318,7 +9318,7 @@
         <v>2</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="R166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -10214,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -10494,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="R179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -11110,7 +11110,7 @@
         <v>2</v>
       </c>
       <c r="R190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="R199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -11838,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="R203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -12174,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="R209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -12398,7 +12398,7 @@
         <v>2</v>
       </c>
       <c r="R213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -12902,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="R222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -13126,7 +13126,7 @@
         <v>2</v>
       </c>
       <c r="R226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -14078,7 +14078,7 @@
         <v>2</v>
       </c>
       <c r="R243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -14358,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="R248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -14414,7 +14414,7 @@
         <v>2</v>
       </c>
       <c r="R249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -15254,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="R264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="R272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -15982,7 +15982,7 @@
         <v>2</v>
       </c>
       <c r="R277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -16934,7 +16934,7 @@
         <v>1</v>
       </c>
       <c r="R294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -18054,7 +18054,7 @@
         <v>2</v>
       </c>
       <c r="R314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -18670,7 +18670,7 @@
         <v>1</v>
       </c>
       <c r="R325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -19006,7 +19006,7 @@
         <v>2</v>
       </c>
       <c r="R331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -19566,7 +19566,7 @@
         <v>1</v>
       </c>
       <c r="R341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -20462,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="R357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="R370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -21358,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="R373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -22310,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="R390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -22758,7 +22758,7 @@
         <v>2</v>
       </c>
       <c r="R398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -23318,7 +23318,7 @@
         <v>2</v>
       </c>
       <c r="R408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="R413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -23990,7 +23990,7 @@
         <v>2</v>
       </c>
       <c r="R420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -24494,7 +24494,7 @@
         <v>1</v>
       </c>
       <c r="R429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -24998,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="R438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -25110,7 +25110,7 @@
         <v>2</v>
       </c>
       <c r="R440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -26230,7 +26230,7 @@
         <v>1</v>
       </c>
       <c r="R460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -26398,7 +26398,7 @@
         <v>2</v>
       </c>
       <c r="R463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -26622,7 +26622,7 @@
         <v>1</v>
       </c>
       <c r="R467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -27126,7 +27126,7 @@
         <v>1</v>
       </c>
       <c r="R476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -28078,7 +28078,7 @@
         <v>2</v>
       </c>
       <c r="R493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -28414,7 +28414,7 @@
         <v>2</v>
       </c>
       <c r="R499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -30038,7 +30038,7 @@
         <v>2</v>
       </c>
       <c r="R528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -30318,7 +30318,7 @@
         <v>1</v>
       </c>
       <c r="R533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -30822,7 +30822,7 @@
         <v>1</v>
       </c>
       <c r="R542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -31270,7 +31270,7 @@
         <v>2</v>
       </c>
       <c r="R550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -31662,7 +31662,7 @@
         <v>1</v>
       </c>
       <c r="R557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -32054,7 +32054,7 @@
         <v>2</v>
       </c>
       <c r="R564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -32558,7 +32558,7 @@
         <v>2</v>
       </c>
       <c r="R573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -32782,7 +32782,7 @@
         <v>1</v>
       </c>
       <c r="R577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -33174,7 +33174,7 @@
         <v>1</v>
       </c>
       <c r="R584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -33846,7 +33846,7 @@
         <v>2</v>
       </c>
       <c r="R596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -34406,7 +34406,7 @@
         <v>1</v>
       </c>
       <c r="R606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -34686,7 +34686,7 @@
         <v>2</v>
       </c>
       <c r="R611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -35022,7 +35022,7 @@
         <v>2</v>
       </c>
       <c r="R617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -35246,7 +35246,7 @@
         <v>1</v>
       </c>
       <c r="R621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -36310,7 +36310,7 @@
         <v>2</v>
       </c>
       <c r="R640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -36646,7 +36646,7 @@
         <v>1</v>
       </c>
       <c r="R646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -36982,7 +36982,7 @@
         <v>2</v>
       </c>
       <c r="R652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -37094,7 +37094,7 @@
         <v>1</v>
       </c>
       <c r="R654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -37654,7 +37654,7 @@
         <v>2</v>
       </c>
       <c r="R664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -37934,7 +37934,7 @@
         <v>1</v>
       </c>
       <c r="R669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -38158,7 +38158,7 @@
         <v>2</v>
       </c>
       <c r="R673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -38606,7 +38606,7 @@
         <v>2</v>
       </c>
       <c r="R681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -39278,7 +39278,7 @@
         <v>2</v>
       </c>
       <c r="R693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -39838,7 +39838,7 @@
         <v>1</v>
       </c>
       <c r="R703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -40230,7 +40230,7 @@
         <v>2</v>
       </c>
       <c r="R710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -40902,7 +40902,7 @@
         <v>2</v>
       </c>
       <c r="R722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
@@ -41238,7 +41238,7 @@
         <v>1</v>
       </c>
       <c r="R728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -41518,7 +41518,7 @@
         <v>2</v>
       </c>
       <c r="R733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -42302,7 +42302,7 @@
         <v>2</v>
       </c>
       <c r="R747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -42974,7 +42974,7 @@
         <v>2</v>
       </c>
       <c r="R759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -43254,7 +43254,7 @@
         <v>1</v>
       </c>
       <c r="R764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -43702,7 +43702,7 @@
         <v>2</v>
       </c>
       <c r="R772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -44038,7 +44038,7 @@
         <v>1</v>
       </c>
       <c r="R778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -44430,7 +44430,7 @@
         <v>2</v>
       </c>
       <c r="R785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -45102,7 +45102,7 @@
         <v>1</v>
       </c>
       <c r="R797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -45382,7 +45382,7 @@
         <v>2</v>
       </c>
       <c r="R802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -45494,7 +45494,7 @@
         <v>1</v>
       </c>
       <c r="R804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -45998,7 +45998,7 @@
         <v>2</v>
       </c>
       <c r="R813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -47958,7 +47958,7 @@
         <v>1</v>
       </c>
       <c r="R848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -48518,7 +48518,7 @@
         <v>1</v>
       </c>
       <c r="R858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859">
@@ -48910,7 +48910,7 @@
         <v>1</v>
       </c>
       <c r="R865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -49358,7 +49358,7 @@
         <v>2</v>
       </c>
       <c r="R873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -49974,7 +49974,7 @@
         <v>1</v>
       </c>
       <c r="R884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885">
@@ -50310,7 +50310,7 @@
         <v>2</v>
       </c>
       <c r="R890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -50534,7 +50534,7 @@
         <v>1</v>
       </c>
       <c r="R894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -52382,7 +52382,7 @@
         <v>2</v>
       </c>
       <c r="R927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -53222,7 +53222,7 @@
         <v>2</v>
       </c>
       <c r="R942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943">
@@ -54510,7 +54510,7 @@
         <v>2</v>
       </c>
       <c r="R965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -55182,7 +55182,7 @@
         <v>2</v>
       </c>
       <c r="R977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
@@ -55518,7 +55518,7 @@
         <v>1</v>
       </c>
       <c r="R983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -56134,7 +56134,7 @@
         <v>2</v>
       </c>
       <c r="R994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995">
@@ -56470,7 +56470,7 @@
         <v>1</v>
       </c>
       <c r="R1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001">
@@ -56582,7 +56582,7 @@
         <v>2</v>
       </c>
       <c r="R1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -56862,7 +56862,7 @@
         <v>1</v>
       </c>
       <c r="R1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -57534,7 +57534,7 @@
         <v>2</v>
       </c>
       <c r="R1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020">
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="R1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -58710,7 +58710,7 @@
         <v>1</v>
       </c>
       <c r="R1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -59102,7 +59102,7 @@
         <v>2</v>
       </c>
       <c r="R1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -59382,7 +59382,7 @@
         <v>1</v>
       </c>
       <c r="R1052" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -59774,7 +59774,7 @@
         <v>2</v>
       </c>
       <c r="R1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060">
@@ -59998,7 +59998,7 @@
         <v>1</v>
       </c>
       <c r="R1063" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
@@ -60222,7 +60222,7 @@
         <v>2</v>
       </c>
       <c r="R1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -60726,7 +60726,7 @@
         <v>2</v>
       </c>
       <c r="R1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077">
@@ -61286,7 +61286,7 @@
         <v>2</v>
       </c>
       <c r="R1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087">
@@ -61790,7 +61790,7 @@
         <v>2</v>
       </c>
       <c r="R1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096">
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
       <c r="R1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -62462,7 +62462,7 @@
         <v>2</v>
       </c>
       <c r="R1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108">
@@ -62574,7 +62574,7 @@
         <v>1</v>
       </c>
       <c r="R1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110">
@@ -62966,7 +62966,7 @@
         <v>1</v>
       </c>
       <c r="R1116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117">
@@ -63190,7 +63190,7 @@
         <v>2</v>
       </c>
       <c r="R1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121">
@@ -64198,7 +64198,7 @@
         <v>2</v>
       </c>
       <c r="R1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139">
@@ -64534,7 +64534,7 @@
         <v>1</v>
       </c>
       <c r="R1144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145">
@@ -65206,7 +65206,7 @@
         <v>2</v>
       </c>
       <c r="R1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -65931,7 +65931,9 @@
       <c r="Q1169" t="n">
         <v>2</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65983,7 +65985,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -66035,7 +66039,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66087,7 +66093,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66139,7 +66147,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66191,7 +66201,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66243,7 +66255,9 @@
       <c r="Q1175" t="n">
         <v>2</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66287,7 +66301,7 @@
         <v>8</v>
       </c>
       <c r="O1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1176" t="n">
         <v>0</v>
@@ -66295,7 +66309,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66347,7 +66363,477 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>655</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>583.7999877929688</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>636.5999755859375</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>594314</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>647</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>659.9000244140625</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>591.7000122070312</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>600.1500244140625</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>395562</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>598.0999755859375</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>655</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>574</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>635</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>573072</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>645</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>655</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>557</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>564.8499755859375</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>657824</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>564.8499755859375</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>560</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>566.7000122070312</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>323672</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>510.0499877929688</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>580</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>510.0499877929688</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>567.8499755859375</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>314044</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>614</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>567.5499877929688</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>590.0499877929688</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>278568</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>618</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>554</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>562.9000244140625</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>515607</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>562.9000244140625</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>570</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>525</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>528</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>365905</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
